--- a/data/trans_dic/P43-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P43-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P43-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P43-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -676,42 +676,42 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,58%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,87%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,49%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,58%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,87%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,46%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,49%</t>
         </is>
       </c>
     </row>
@@ -744,42 +744,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>44,92; 50,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>61,05; 66,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>61,69; 68,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>60,83; 67,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>44,92; 50,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>61,05; 66,66</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>61,69; 68,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>60,83; 67,67</t>
         </is>
       </c>
     </row>
@@ -816,42 +816,42 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,54%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,51%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,54%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,41%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,35%</t>
         </is>
       </c>
     </row>
@@ -884,42 +884,42 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>28,21; 32,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>35,38; 39,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>41,3; 45,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>45,26; 61,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>28,21; 32,6</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>35,38; 39,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>41,3; 45,82</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>45,26; 61,54</t>
         </is>
       </c>
     </row>
@@ -956,42 +956,42 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,9%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,02%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,3%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,04%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,9%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,02%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,3%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,04%</t>
         </is>
       </c>
     </row>
@@ -1024,42 +1024,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>31,59; 40,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>30,32; 39,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>40,94; 50,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>53,74; 62,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>31,59; 40,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>30,32; 39,54</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>40,94; 50,02</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>53,74; 62,1</t>
         </is>
       </c>
     </row>
@@ -1096,42 +1096,42 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,39%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,91%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,14%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,89%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,39%</t>
         </is>
       </c>
     </row>
@@ -1164,42 +1164,42 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>36,16; 39,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>45,28; 48,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>48,19; 51,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>51,8; 60,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>36,16; 39,59</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>45,28; 48,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>48,19; 51,76</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>51,8; 60,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P43-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P43-Estudios-trans_dic.xlsx
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>64,49%</t>
+          <t>64,98%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>64,49%</t>
+          <t>64,98%</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>60,83; 67,67</t>
+          <t>61,62; 68,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>60,83; 67,67</t>
+          <t>61,62; 68,23</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>49,35%</t>
+          <t>52,23%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>49,35%</t>
+          <t>52,23%</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>45,26; 61,54</t>
+          <t>44,47; 69,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>45,26; 61,54</t>
+          <t>44,47; 69,57</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>58,04%</t>
+          <t>57,95%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>58,04%</t>
+          <t>57,95%</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>53,74; 62,1</t>
+          <t>53,48; 61,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>53,74; 62,1</t>
+          <t>53,48; 61,92</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>54,39%</t>
+          <t>55,93%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>54,39%</t>
+          <t>55,93%</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>51,8; 60,08</t>
+          <t>51,07; 65,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>51,8; 60,08</t>
+          <t>51,07; 65,4</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P43-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P43-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -744,42 +745,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>44,92; 50,35</t>
+          <t>44,67; 50,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>61,05; 66,66</t>
+          <t>60,92; 66,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>61,69; 68,13</t>
+          <t>62,32; 68,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>61,62; 68,23</t>
+          <t>62,02; 68,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>44,92; 50,35</t>
+          <t>44,67; 50,3</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>61,05; 66,66</t>
+          <t>60,92; 66,28</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>61,69; 68,13</t>
+          <t>62,32; 68,56</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>61,62; 68,23</t>
+          <t>62,02; 68,18</t>
         </is>
       </c>
     </row>
@@ -884,42 +885,42 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,21; 32,6</t>
+          <t>28,19; 32,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>35,38; 39,8</t>
+          <t>35,18; 40,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>41,3; 45,82</t>
+          <t>41,25; 45,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>44,47; 69,57</t>
+          <t>43,86; 69,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,21; 32,6</t>
+          <t>28,19; 32,75</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>35,38; 39,8</t>
+          <t>35,18; 40,09</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>41,3; 45,82</t>
+          <t>41,25; 45,91</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>44,47; 69,57</t>
+          <t>43,86; 69,15</t>
         </is>
       </c>
     </row>
@@ -1024,42 +1025,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,59; 40,15</t>
+          <t>31,54; 40,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,32; 39,54</t>
+          <t>30,28; 40,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>40,94; 50,02</t>
+          <t>41,08; 50,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>53,48; 61,92</t>
+          <t>53,71; 61,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>31,59; 40,15</t>
+          <t>31,54; 40,5</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>30,32; 39,54</t>
+          <t>30,28; 40,53</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>40,94; 50,02</t>
+          <t>41,08; 50,03</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>53,48; 61,92</t>
+          <t>53,71; 61,83</t>
         </is>
       </c>
     </row>
@@ -1164,42 +1165,42 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,16; 39,59</t>
+          <t>36,19; 39,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,28; 48,9</t>
+          <t>45,32; 48,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>48,19; 51,76</t>
+          <t>48,05; 51,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>51,07; 65,4</t>
+          <t>51,14; 66,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>36,16; 39,59</t>
+          <t>36,19; 39,57</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>45,28; 48,9</t>
+          <t>45,32; 48,8</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>48,19; 51,76</t>
+          <t>48,05; 51,53</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>51,07; 65,4</t>
+          <t>51,14; 66,75</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han realizado alguna vez una mamografía por prescripción de algún especialista</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>796</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>577</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>796</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>577</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>621366</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>849925</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>644496</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>397625</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>621366</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>849925</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>644496</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>397625</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>583360; 656827</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>810559; 881897</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>613636; 675099</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>379482; 417195</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>583360; 656827</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>810559; 881897</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>613636; 675099</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>379482; 417195</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1198</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1198</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>481836</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>655626</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>857045</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>914307</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>481836</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>655626</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>857045</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>914307</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>445236; 517208</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>614372; 700041</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>814525; 906395</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>767849; 1210561</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>445236; 517208</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>614372; 700041</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>814525; 906395</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>767849; 1210561</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>170239</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>159533</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>248297</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>267934</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>170239</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>159533</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>248297</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>267934</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>149601; 192086</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>137937; 184640</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>225205; 274225</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>248326; 285854</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>149601; 192086</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>137937; 184640</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>225205; 274225</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>248326; 285854</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1252</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1521</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1588</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2461</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1252</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1521</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1588</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2461</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1273441</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1665084</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1749838</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1579865</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1273441</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1665084</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1749838</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1579865</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1215683; 1329323</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1600830; 1723735</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1685137; 1807339</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1444605; 1885539</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1215683; 1329323</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1600830; 1723735</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1685137; 1807339</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1444605; 1885539</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>